--- a/Book2.xlsx
+++ b/Book2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hcahealthcare-my.sharepoint.com/personal/hol8042_hca_corpad_net/Documents/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Python\monthEnder\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="43">
   <si>
     <t>Billing And Accrual</t>
   </si>
@@ -42,9 +42,6 @@
   </si>
   <si>
     <t>Billing and Accrual (once invoicing starts)</t>
-  </si>
-  <si>
-    <t>ALL</t>
   </si>
   <si>
     <t>Alverno Labs</t>
@@ -504,10 +501,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -521,55 +519,55 @@
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C3" s="4">
         <v>29271</v>
       </c>
       <c r="D3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s">
         <v>2</v>
@@ -578,15 +576,15 @@
         <v>29273</v>
       </c>
       <c r="D4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5" t="s">
         <v>2</v>
@@ -595,15 +593,15 @@
         <v>29263</v>
       </c>
       <c r="D5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E5" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>2</v>
@@ -612,32 +610,32 @@
         <v>30589</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B7" t="s">
         <v>2</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E7" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B8" t="s">
         <v>2</v>
@@ -646,15 +644,15 @@
         <v>29786</v>
       </c>
       <c r="D8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E8" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B9" t="s">
         <v>2</v>
@@ -663,15 +661,15 @@
         <v>29790</v>
       </c>
       <c r="D9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E9" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B10" t="s">
         <v>2</v>
@@ -680,15 +678,15 @@
         <v>29272</v>
       </c>
       <c r="D10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E10" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s">
         <v>2</v>
@@ -697,7 +695,7 @@
         <v>29257</v>
       </c>
       <c r="D11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E11" t="s">
         <v>0</v>
@@ -705,13 +703,13 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E12" t="s">
         <v>0</v>
@@ -719,27 +717,27 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E14" t="s">
         <v>0</v>
@@ -747,13 +745,13 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D15" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
         <v>0</v>
@@ -761,64 +759,64 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D16" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C17" s="4">
         <v>31612</v>
       </c>
       <c r="D17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E17" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C18">
         <v>31618</v>
       </c>
       <c r="D18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E18" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E19" t="s">
         <v>0</v>
@@ -826,13 +824,13 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D20" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E20" t="s">
         <v>0</v>
@@ -840,13 +838,13 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D21" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
         <v>0</v>
@@ -854,28 +852,28 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B23" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D23" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
         <v>0</v>
@@ -883,13 +881,13 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24" t="s">
         <v>7</v>
       </c>
-      <c r="B24" t="s">
-        <v>8</v>
-      </c>
       <c r="D24" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
         <v>0</v>
@@ -897,19 +895,19 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B25" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D25" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>3</v>
       </c>
@@ -926,7 +924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>3</v>
       </c>
@@ -943,7 +941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>3</v>
       </c>
@@ -960,7 +958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>3</v>
       </c>
@@ -977,7 +975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>3</v>
       </c>
@@ -994,7 +992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
         <v>3</v>
       </c>
@@ -1011,7 +1009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>3</v>
       </c>
@@ -1028,7 +1026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
         <v>3</v>
       </c>
@@ -1045,7 +1043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
         <v>3</v>
       </c>
@@ -1062,7 +1060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
         <v>3</v>
       </c>
@@ -1079,7 +1077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
         <v>3</v>
       </c>
@@ -1096,7 +1094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
         <v>3</v>
       </c>
@@ -1113,7 +1111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
         <v>3</v>
       </c>
@@ -1130,7 +1128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
         <v>3</v>
       </c>
@@ -1147,7 +1145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
         <v>3</v>
       </c>
@@ -1164,7 +1162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
         <v>3</v>
       </c>
@@ -1182,13 +1180,28 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E41"/>
+  <autoFilter ref="A1:E41">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="ALL"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008F9A4161EA500A4C82B491574487E383" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="cbdf27a2e7bb0cda113f691274120128">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="3844b8d3-abe4-4d53-9885-598f7f5968e9" xmlns:ns4="ece5eda8-e753-47e2-b8e3-baa593ba0906" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="44f94028078e6778a54268945eec1755" ns3:_="" ns4:_="">
     <xsd:import namespace="3844b8d3-abe4-4d53-9885-598f7f5968e9"/>
@@ -1405,15 +1418,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -1421,6 +1425,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AE461351-54C0-43A4-B6DC-5376C030C0D3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B765C67F-B9E6-42DC-B564-BD1C8750B189}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1435,14 +1447,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AE461351-54C0-43A4-B6DC-5376C030C0D3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Book2.xlsx
+++ b/Book2.xlsx
@@ -501,10 +501,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
@@ -534,7 +533,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -548,7 +547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -565,7 +564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -582,7 +581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -599,7 +598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>17</v>
       </c>
@@ -616,7 +615,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -633,7 +632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -650,7 +649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -667,7 +666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -684,7 +683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -729,7 +728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>6</v>
       </c>
@@ -771,7 +770,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -788,7 +787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -805,7 +804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -907,7 +906,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>3</v>
       </c>
@@ -924,7 +923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>3</v>
       </c>
@@ -941,7 +940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>3</v>
       </c>
@@ -958,7 +957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>3</v>
       </c>
@@ -975,7 +974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>3</v>
       </c>
@@ -992,7 +991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
         <v>3</v>
       </c>
@@ -1009,7 +1008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>3</v>
       </c>
@@ -1026,7 +1025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
         <v>3</v>
       </c>
@@ -1043,7 +1042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
         <v>3</v>
       </c>
@@ -1060,7 +1059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
         <v>3</v>
       </c>
@@ -1077,7 +1076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
         <v>3</v>
       </c>
@@ -1094,7 +1093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
         <v>3</v>
       </c>
@@ -1111,7 +1110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
         <v>3</v>
       </c>
@@ -1128,7 +1127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
         <v>3</v>
       </c>
@@ -1145,7 +1144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
         <v>3</v>
       </c>
@@ -1162,7 +1161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
         <v>3</v>
       </c>
@@ -1180,28 +1179,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E41">
-    <filterColumn colId="3">
-      <filters>
-        <filter val="ALL"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:E41"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008F9A4161EA500A4C82B491574487E383" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="cbdf27a2e7bb0cda113f691274120128">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="3844b8d3-abe4-4d53-9885-598f7f5968e9" xmlns:ns4="ece5eda8-e753-47e2-b8e3-baa593ba0906" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="44f94028078e6778a54268945eec1755" ns3:_="" ns4:_="">
     <xsd:import namespace="3844b8d3-abe4-4d53-9885-598f7f5968e9"/>
@@ -1418,6 +1402,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -1425,14 +1418,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AE461351-54C0-43A4-B6DC-5376C030C0D3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B765C67F-B9E6-42DC-B564-BD1C8750B189}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1447,6 +1432,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AE461351-54C0-43A4-B6DC-5376C030C0D3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
